--- a/data/trans_bre/IP2003-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP2003-Edad-trans_bre.xlsx
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,13</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,19</t>
+          <t>3,03</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>4,18</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>28,11%</t>
+          <t>11,94%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>25,66%</t>
+          <t>27,72%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>50,73%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,87; 13,84</t>
+          <t>-3,61; 6,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 12,47</t>
+          <t>-2,05; 8,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 6,9</t>
+          <t>-4,58; 4,64</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 8,8</t>
+          <t>-0,64; 10,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,86; 61,78</t>
+          <t>-26,21; 76,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 59,51</t>
+          <t>-15,11; 99,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-19,81; 35,29</t>
+          <t>-37,78; 59,82</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-25,63; 57,19</t>
+          <t>-8,65; 172,4</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>7,13</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,03</t>
+          <t>6,19</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,18</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>11,94%</t>
+          <t>28,11%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>27,72%</t>
+          <t>25,66%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>50,73%</t>
+          <t>4,43%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 6,53</t>
+          <t>0,87; 13,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 8,67</t>
+          <t>-0,06; 12,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 4,64</t>
+          <t>-5,16; 6,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 10,09</t>
+          <t>-5,43; 8,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-26,21; 76,89</t>
+          <t>2,86; 61,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-15,11; 99,22</t>
+          <t>-0,86; 59,51</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-37,78; 59,82</t>
+          <t>-19,81; 35,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,65; 172,4</t>
+          <t>-25,63; 57,19</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP2003-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP2003-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,63</t>
+          <t>-2,02</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-29,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>172,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-6,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-57,59%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 1,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 2,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 0,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 0,82</t>
+          <t>-9,32; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,14 +703,14 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 143,03</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,03</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,18</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>11,94%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>27,72%</t>
+          <t>-16,97%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>25,76%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>50,73%</t>
+          <t>3,51%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 6,53</t>
+          <t>-2,42; 3,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 8,67</t>
+          <t>-4,22; 2,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 4,64</t>
+          <t>-2,2; 4,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 10,09</t>
+          <t>-4,63; 4,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-26,21; 76,89</t>
+          <t>-44,7; 119,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-15,11; 99,22</t>
+          <t>-59,9; 57,9</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-37,78; 59,82</t>
+          <t>-38,86; 150,68</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-8,65; 172,4</t>
+          <t>-53,74; 113,85</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,13</t>
+          <t>5,85</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,19</t>
+          <t>7,84</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>-1,63</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>5,41</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>28,11%</t>
+          <t>26,94%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>25,66%</t>
+          <t>39,17%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>-8,42%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>48,05%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,87; 13,84</t>
+          <t>-2,82; 14,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 12,47</t>
+          <t>0,78; 16,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 6,9</t>
+          <t>-8,56; 4,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 8,8</t>
+          <t>-0,84; 12,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,86; 61,78</t>
+          <t>-11,15; 82,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 59,51</t>
+          <t>2,76; 100,5</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-19,81; 35,29</t>
+          <t>-36,85; 28,22</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-25,63; 57,19</t>
+          <t>-6,51; 146,12</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,32</t>
+          <t>7,15</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,59</t>
+          <t>7,5</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>23,35%</t>
+          <t>26,18%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>27,2%</t>
+          <t>29,22%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>3,1%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>9,7%</t>
+          <t>0,33%</t>
         </is>
       </c>
     </row>
@@ -968,48 +968,156 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,31; 6,41</t>
+          <t>-1,02; 14,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,42; 7,01</t>
+          <t>-0,16; 16,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 3,36</t>
+          <t>-7,8; 8,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 5,86</t>
+          <t>-7,99; 10,04</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,03; 50,72</t>
+          <t>-4,22; 59,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,98; 60,98</t>
+          <t>-0,71; 71,67</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-18,73; 28,76</t>
+          <t>-27,35; 39,99</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-19,42; 51,21</t>
+          <t>-32,68; 61,73</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>3,32</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3,59</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,54</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1,29</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>23,35%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>27,2%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>4,15%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>9,7%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0,28; 6,56</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0,83; 6,74</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-2,49; 3,58</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-2,52; 5,74</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1,36; 49,87</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>5,22; 58,46</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-17,44; 30,64</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-16,85; 50,87</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>

--- a/data/trans_bre/IP2003-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP2003-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,32; 0,0</t>
+          <t>-11,1; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 3,08</t>
+          <t>-2,72; 3,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 2,38</t>
+          <t>-4,09; 2,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 4,61</t>
+          <t>-2,15; 4,74</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 4,51</t>
+          <t>-4,04; 5,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-44,7; 119,28</t>
+          <t>-50,68; 112,04</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-59,9; 57,9</t>
+          <t>-59,29; 60,78</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-38,86; 150,68</t>
+          <t>-37,8; 165,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-53,74; 113,85</t>
+          <t>-47,64; 110,46</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 14,61</t>
+          <t>-3,23; 14,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,78; 16,47</t>
+          <t>-0,02; 15,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,56; 4,35</t>
+          <t>-8,59; 4,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 12,63</t>
+          <t>-1,15; 12,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,15; 82,31</t>
+          <t>-14,23; 77,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,76; 100,5</t>
+          <t>0,03; 98,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-36,85; 28,22</t>
+          <t>-37,18; 29,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 146,12</t>
+          <t>-10,38; 147,34</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 14,06</t>
+          <t>0,44; 14,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 16,07</t>
+          <t>-0,39; 15,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,8; 8,36</t>
+          <t>-7,22; 8,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,99; 10,04</t>
+          <t>-7,82; 9,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 59,16</t>
+          <t>1,04; 62,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 71,67</t>
+          <t>-1,58; 66,93</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-27,35; 39,99</t>
+          <t>-24,41; 40,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-32,68; 61,73</t>
+          <t>-31,91; 60,72</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,28; 6,56</t>
+          <t>0,01; 6,64</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,83; 6,74</t>
+          <t>0,85; 6,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 3,58</t>
+          <t>-2,38; 3,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 5,74</t>
+          <t>-2,51; 5,97</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,36; 49,87</t>
+          <t>-0,26; 51,36</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,22; 58,46</t>
+          <t>5,87; 59,15</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-17,44; 30,64</t>
+          <t>-15,9; 30,95</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-16,85; 50,87</t>
+          <t>-17,46; 49,72</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP2003-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP2003-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,02</t>
+          <t>-2,33</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,1; 0,0</t>
+          <t>-14,6; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>1,04%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 3,31</t>
+          <t>-2,73; 3,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 2,22</t>
+          <t>-4,14; 2,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 4,74</t>
+          <t>-2,1; 4,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 5,35</t>
+          <t>-4,67; 5,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-50,68; 112,04</t>
+          <t>-48,42; 114,91</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-59,29; 60,78</t>
+          <t>-58,04; 58,67</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-37,8; 165,59</t>
+          <t>-37,88; 154,23</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-47,64; 110,46</t>
+          <t>-52,96; 120,09</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,41</t>
+          <t>5,74</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>48,05%</t>
+          <t>49,01%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 14,34</t>
+          <t>-2,74; 14,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 15,72</t>
+          <t>0,53; 15,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,59; 4,76</t>
+          <t>-8,19; 4,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 12,85</t>
+          <t>-0,76; 13,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-14,23; 77,4</t>
+          <t>-11,98; 83,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,03; 98,87</t>
+          <t>1,25; 100,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-37,18; 29,55</t>
+          <t>-35,45; 30,96</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-10,38; 147,34</t>
+          <t>-6,38; 150,88</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>4,16</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>18,88%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,44; 14,77</t>
+          <t>-1,0; 13,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 15,2</t>
+          <t>0,12; 15,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,22; 8,57</t>
+          <t>-7,2; 8,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 9,99</t>
+          <t>-6,89; 28,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,04; 62,19</t>
+          <t>-4,48; 56,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 66,93</t>
+          <t>0,4; 69,4</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-24,41; 40,1</t>
+          <t>-24,44; 41,79</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-31,91; 60,72</t>
+          <t>-30,71; 153,93</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>3,13</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>9,7%</t>
+          <t>22,24%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,01; 6,64</t>
+          <t>0,31; 6,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,85; 6,9</t>
+          <t>0,42; 7,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 3,53</t>
+          <t>-2,84; 3,36</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 5,97</t>
+          <t>-2,69; 15,36</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 51,36</t>
+          <t>2,03; 50,72</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,87; 59,15</t>
+          <t>2,98; 60,98</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-15,9; 30,95</t>
+          <t>-18,73; 28,76</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-17,46; 49,72</t>
+          <t>-18,49; 117,94</t>
         </is>
       </c>
     </row>
